--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N2">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q2">
-        <v>2.586223523473333</v>
+        <v>13.98581668011733</v>
       </c>
       <c r="R2">
-        <v>23.27601171126</v>
+        <v>125.872350121056</v>
       </c>
       <c r="S2">
-        <v>0.001673776090589787</v>
+        <v>0.007208545992638819</v>
       </c>
       <c r="T2">
-        <v>0.001673776090589787</v>
+        <v>0.00720854599263882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H3">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q3">
-        <v>3.100940921368888</v>
+        <v>4.585069768184889</v>
       </c>
       <c r="R3">
-        <v>27.90846829231999</v>
+        <v>41.265627913664</v>
       </c>
       <c r="S3">
-        <v>0.002006895662888448</v>
+        <v>0.002363228909642858</v>
       </c>
       <c r="T3">
-        <v>0.002006895662888448</v>
+        <v>0.002363228909642858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H4">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N4">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q4">
-        <v>28.18407308930889</v>
+        <v>42.0853867943569</v>
       </c>
       <c r="R4">
-        <v>253.65665780378</v>
+        <v>378.7684811492121</v>
       </c>
       <c r="S4">
-        <v>0.01824042943085027</v>
+        <v>0.0216915789234105</v>
       </c>
       <c r="T4">
-        <v>0.01824042943085027</v>
+        <v>0.0216915789234105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H5">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N5">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q5">
-        <v>38.40918265637445</v>
+        <v>23.18903206531023</v>
       </c>
       <c r="R5">
-        <v>345.68264390737</v>
+        <v>208.701288587792</v>
       </c>
       <c r="S5">
-        <v>0.02485801053382862</v>
+        <v>0.01195205171001589</v>
       </c>
       <c r="T5">
-        <v>0.02485801053382862</v>
+        <v>0.01195205171001589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H6">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N6">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q6">
-        <v>38.21462053015444</v>
+        <v>68.66800703836577</v>
       </c>
       <c r="R6">
-        <v>343.93158477139</v>
+        <v>618.0120633452919</v>
       </c>
       <c r="S6">
-        <v>0.02473209201516787</v>
+        <v>0.03539274811621176</v>
       </c>
       <c r="T6">
-        <v>0.02473209201516787</v>
+        <v>0.03539274811621177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H7">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N7">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q7">
-        <v>25.80641243633444</v>
+        <v>67.61930776835423</v>
       </c>
       <c r="R7">
-        <v>232.25771192701</v>
+        <v>608.573769915188</v>
       </c>
       <c r="S7">
-        <v>0.01670163299026265</v>
+        <v>0.03485222931110889</v>
       </c>
       <c r="T7">
-        <v>0.01670163299026265</v>
+        <v>0.03485222931110889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N8">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O8">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P8">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q8">
-        <v>5.288275821004667</v>
+        <v>19.34120001493067</v>
       </c>
       <c r="R8">
-        <v>47.59448238904199</v>
+        <v>174.070800134376</v>
       </c>
       <c r="S8">
-        <v>0.003422515319849133</v>
+        <v>0.009968808618710186</v>
       </c>
       <c r="T8">
-        <v>0.003422515319849133</v>
+        <v>0.009968808618710186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.807088</v>
       </c>
       <c r="O9">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P9">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q9">
         <v>6.340763181527111</v>
       </c>
       <c r="R9">
-        <v>57.06686863374399</v>
+        <v>57.066868633744</v>
       </c>
       <c r="S9">
-        <v>0.00410367383677598</v>
+        <v>0.00326814544104875</v>
       </c>
       <c r="T9">
-        <v>0.00410367383677598</v>
+        <v>0.00326814544104875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N10">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O10">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P10">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q10">
-        <v>57.63042169512511</v>
+        <v>58.20052574066413</v>
       </c>
       <c r="R10">
-        <v>518.6737952561259</v>
+        <v>523.8047316659772</v>
       </c>
       <c r="S10">
-        <v>0.03729779002023758</v>
+        <v>0.02999761659923439</v>
       </c>
       <c r="T10">
-        <v>0.03729779002023758</v>
+        <v>0.02999761659923439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N11">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O11">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P11">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q11">
-        <v>78.53859115528655</v>
+        <v>32.06846747572578</v>
       </c>
       <c r="R11">
-        <v>706.847320397579</v>
+        <v>288.6162072815321</v>
       </c>
       <c r="S11">
-        <v>0.05082933275921099</v>
+        <v>0.01652867530008781</v>
       </c>
       <c r="T11">
-        <v>0.05082933275921098</v>
+        <v>0.01652867530008781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N12">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O12">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P12">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q12">
-        <v>78.14075308041255</v>
+        <v>94.96203826579521</v>
       </c>
       <c r="R12">
-        <v>703.2667777237129</v>
+        <v>854.658344392157</v>
       </c>
       <c r="S12">
-        <v>0.05057185622958911</v>
+        <v>0.04894517324589797</v>
       </c>
       <c r="T12">
-        <v>0.05057185622958911</v>
+        <v>0.04894517324589797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N13">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O13">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P13">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q13">
-        <v>52.76861248661855</v>
+        <v>93.51177598932479</v>
       </c>
       <c r="R13">
-        <v>474.9175123795669</v>
+        <v>841.6059839039232</v>
       </c>
       <c r="S13">
-        <v>0.03415127931211493</v>
+        <v>0.04819768151477952</v>
       </c>
       <c r="T13">
-        <v>0.03415127931211493</v>
+        <v>0.04819768151477952</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H14">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N14">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O14">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P14">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q14">
-        <v>7.972268801651333</v>
+        <v>35.39502668488267</v>
       </c>
       <c r="R14">
-        <v>71.75041921486201</v>
+        <v>318.555240163944</v>
       </c>
       <c r="S14">
-        <v>0.005159566753162156</v>
+        <v>0.01824324482469296</v>
       </c>
       <c r="T14">
-        <v>0.005159566753162156</v>
+        <v>0.01824324482469296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H15">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.807088</v>
       </c>
       <c r="O15">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P15">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q15">
-        <v>9.558931909331555</v>
+        <v>11.60380337514844</v>
       </c>
       <c r="R15">
-        <v>86.03038718398399</v>
+        <v>104.434230376336</v>
       </c>
       <c r="S15">
-        <v>0.006186438077064344</v>
+        <v>0.005980812721377195</v>
       </c>
       <c r="T15">
-        <v>0.006186438077064344</v>
+        <v>0.005980812721377195</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H16">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N16">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O16">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P16">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q16">
-        <v>86.87996399150957</v>
+        <v>106.5088598471015</v>
       </c>
       <c r="R16">
-        <v>781.9196759235861</v>
+        <v>958.5797386239132</v>
       </c>
       <c r="S16">
-        <v>0.05622777967969008</v>
+        <v>0.05489661650741098</v>
       </c>
       <c r="T16">
-        <v>0.05622777967969008</v>
+        <v>0.05489661650741098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H17">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N17">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O17">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P17">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q17">
-        <v>118.3997925195188</v>
+        <v>58.68634113552312</v>
       </c>
       <c r="R17">
-        <v>1065.598132675669</v>
+        <v>528.177070219708</v>
       </c>
       <c r="S17">
-        <v>0.07662707420734104</v>
+        <v>0.0302480147488649</v>
       </c>
       <c r="T17">
-        <v>0.07662707420734102</v>
+        <v>0.0302480147488649</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H18">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N18">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O18">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P18">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q18">
-        <v>117.8000371021048</v>
+        <v>173.7836264489259</v>
       </c>
       <c r="R18">
-        <v>1060.200333918943</v>
+        <v>1564.052638040333</v>
       </c>
       <c r="S18">
-        <v>0.07623891894204475</v>
+        <v>0.08957126299285488</v>
       </c>
       <c r="T18">
-        <v>0.07623891894204475</v>
+        <v>0.08957126299285488</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H19">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N19">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O19">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P19">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q19">
-        <v>79.55060917257077</v>
+        <v>171.1295991943541</v>
       </c>
       <c r="R19">
-        <v>715.955482553137</v>
+        <v>1540.166392749187</v>
       </c>
       <c r="S19">
-        <v>0.05148429995179978</v>
+        <v>0.08820332875148193</v>
       </c>
       <c r="T19">
-        <v>0.05148429995179978</v>
+        <v>0.08820332875148193</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H20">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N20">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O20">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P20">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q20">
-        <v>2.939229640192667</v>
+        <v>6.023348364018667</v>
       </c>
       <c r="R20">
-        <v>26.453066761734</v>
+        <v>54.210135276168</v>
       </c>
       <c r="S20">
-        <v>0.001902237858350388</v>
+        <v>0.003104544032343922</v>
       </c>
       <c r="T20">
-        <v>0.001902237858350388</v>
+        <v>0.003104544032343922</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H21">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.807088</v>
       </c>
       <c r="O21">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P21">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q21">
-        <v>3.524203297143111</v>
+        <v>1.974677140332444</v>
       </c>
       <c r="R21">
-        <v>31.717829674288</v>
+        <v>17.772094262992</v>
       </c>
       <c r="S21">
-        <v>0.00228082652701796</v>
+        <v>0.001017784753816715</v>
       </c>
       <c r="T21">
-        <v>0.00228082652701796</v>
+        <v>0.001017784753816715</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H22">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N22">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O22">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P22">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q22">
-        <v>32.03105309868911</v>
+        <v>18.12514431547345</v>
       </c>
       <c r="R22">
-        <v>288.2794778882021</v>
+        <v>163.126298839261</v>
       </c>
       <c r="S22">
-        <v>0.02073015357968558</v>
+        <v>0.009342031245629788</v>
       </c>
       <c r="T22">
-        <v>0.02073015357968558</v>
+        <v>0.00934203124562979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H23">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N23">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O23">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P23">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q23">
-        <v>43.65183716509256</v>
+        <v>9.986947601875112</v>
       </c>
       <c r="R23">
-        <v>392.866534485833</v>
+        <v>89.88252841687601</v>
       </c>
       <c r="S23">
-        <v>0.02825100023029931</v>
+        <v>0.005147455651734364</v>
       </c>
       <c r="T23">
-        <v>0.0282510002302993</v>
+        <v>0.005147455651734365</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H24">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N24">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O24">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P24">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q24">
-        <v>43.43071831629455</v>
+        <v>29.57362714777788</v>
       </c>
       <c r="R24">
-        <v>390.876464846651</v>
+        <v>266.162644330001</v>
       </c>
       <c r="S24">
-        <v>0.02810789448598228</v>
+        <v>0.0152427889153571</v>
       </c>
       <c r="T24">
-        <v>0.02810789448598228</v>
+        <v>0.0152427889153571</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H25">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N25">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O25">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P25">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q25">
-        <v>29.32885408065655</v>
+        <v>29.12197808238211</v>
       </c>
       <c r="R25">
-        <v>263.959686725909</v>
+        <v>262.097802741439</v>
       </c>
       <c r="S25">
-        <v>0.01898131939449349</v>
+        <v>0.01501000071750618</v>
       </c>
       <c r="T25">
-        <v>0.01898131939449349</v>
+        <v>0.01501000071750619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H26">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I26">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J26">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N26">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O26">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P26">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q26">
-        <v>2.935784164409333</v>
+        <v>9.480909401997334</v>
       </c>
       <c r="R26">
-        <v>26.422057479684</v>
+        <v>85.32818461797601</v>
       </c>
       <c r="S26">
-        <v>0.001900007983424842</v>
+        <v>0.004886634298124249</v>
       </c>
       <c r="T26">
-        <v>0.001900007983424843</v>
+        <v>0.00488663429812425</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H27">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I27">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J27">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.807088</v>
       </c>
       <c r="O27">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P27">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q27">
-        <v>3.520072093187555</v>
+        <v>3.108193970238222</v>
       </c>
       <c r="R27">
-        <v>31.680648838688</v>
+        <v>27.973745732144</v>
       </c>
       <c r="S27">
-        <v>0.002278152856183479</v>
+        <v>0.001602020082270727</v>
       </c>
       <c r="T27">
-        <v>0.002278152856183479</v>
+        <v>0.001602020082270727</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H28">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I28">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J28">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N28">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O28">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P28">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q28">
-        <v>31.99350509078356</v>
+        <v>28.52945583882523</v>
       </c>
       <c r="R28">
-        <v>287.941545817052</v>
+        <v>256.7651025494271</v>
       </c>
       <c r="S28">
-        <v>0.0207058529122022</v>
+        <v>0.01470460390428944</v>
       </c>
       <c r="T28">
-        <v>0.02070585291220221</v>
+        <v>0.01470460390428945</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H29">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I29">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J29">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N29">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O29">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P29">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q29">
-        <v>43.60066683603978</v>
+        <v>15.71971928130356</v>
       </c>
       <c r="R29">
-        <v>392.406001524358</v>
+        <v>141.477473531732</v>
       </c>
       <c r="S29">
-        <v>0.02821788334286139</v>
+        <v>0.008102231140476901</v>
       </c>
       <c r="T29">
-        <v>0.02821788334286138</v>
+        <v>0.008102231140476902</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H30">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I30">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J30">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N30">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O30">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P30">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q30">
-        <v>43.37980719109177</v>
+        <v>46.54967017206744</v>
       </c>
       <c r="R30">
-        <v>390.418264719826</v>
+        <v>418.947031548607</v>
       </c>
       <c r="S30">
-        <v>0.02807494535249246</v>
+        <v>0.02399255231584377</v>
       </c>
       <c r="T30">
-        <v>0.02807494535249246</v>
+        <v>0.02399255231584377</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H31">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I31">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J31">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N31">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O31">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P31">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q31">
-        <v>29.29447369230378</v>
+        <v>45.83876261505256</v>
       </c>
       <c r="R31">
-        <v>263.650263230734</v>
+        <v>412.548863535473</v>
       </c>
       <c r="S31">
-        <v>0.01895906877636718</v>
+        <v>0.0236261375444746</v>
       </c>
       <c r="T31">
-        <v>0.01895906877636718</v>
+        <v>0.02362613754447461</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H32">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I32">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J32">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N32">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O32">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P32">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q32">
-        <v>7.596213247373334</v>
+        <v>39.03977917985867</v>
       </c>
       <c r="R32">
-        <v>68.36591922636001</v>
+        <v>351.358012618728</v>
       </c>
       <c r="S32">
-        <v>0.004916187636944595</v>
+        <v>0.02012181699482376</v>
       </c>
       <c r="T32">
-        <v>0.004916187636944595</v>
+        <v>0.02012181699482377</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H33">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I33">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J33">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.807088</v>
       </c>
       <c r="O33">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P33">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q33">
-        <v>9.108032732835555</v>
+        <v>12.79868851195911</v>
       </c>
       <c r="R33">
-        <v>81.97229459552</v>
+        <v>115.188196607632</v>
       </c>
       <c r="S33">
-        <v>0.005894620972303016</v>
+        <v>0.006596678398843515</v>
       </c>
       <c r="T33">
-        <v>0.005894620972303016</v>
+        <v>0.006596678398843515</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H34">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I34">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J34">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N34">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O34">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P34">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q34">
-        <v>82.78179647767557</v>
+        <v>117.4764580953201</v>
       </c>
       <c r="R34">
-        <v>745.0361682990801</v>
+        <v>1057.288122857881</v>
       </c>
       <c r="S34">
-        <v>0.05357548967550868</v>
+        <v>0.0605495174576618</v>
       </c>
       <c r="T34">
-        <v>0.05357548967550868</v>
+        <v>0.06054951745766182</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H35">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I35">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J35">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N35">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O35">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P35">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q35">
-        <v>112.8148203227578</v>
+        <v>64.72948358542179</v>
       </c>
       <c r="R35">
-        <v>1015.33338290482</v>
+        <v>582.5653522687961</v>
       </c>
       <c r="S35">
-        <v>0.07301254017936469</v>
+        <v>0.03336276101549458</v>
       </c>
       <c r="T35">
-        <v>0.07301254017936466</v>
+        <v>0.03336276101549459</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H36">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I36">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J36">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N36">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O36">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P36">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q36">
-        <v>112.2433556418378</v>
+        <v>191.6787480354912</v>
       </c>
       <c r="R36">
-        <v>1010.19020077654</v>
+        <v>1725.108732319421</v>
       </c>
       <c r="S36">
-        <v>0.07264269437490929</v>
+        <v>0.09879473631236485</v>
       </c>
       <c r="T36">
-        <v>0.07264269437490929</v>
+        <v>0.09879473631236488</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H37">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I37">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J37">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N37">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O37">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P37">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q37">
-        <v>75.79817066731779</v>
+        <v>188.7514261018688</v>
       </c>
       <c r="R37">
-        <v>682.18353600586</v>
+        <v>1698.762834916819</v>
       </c>
       <c r="S37">
-        <v>0.04905576204914169</v>
+        <v>0.09728594098947346</v>
       </c>
       <c r="T37">
-        <v>0.04905576204914169</v>
+        <v>0.09728594098947348</v>
       </c>
     </row>
   </sheetData>
